--- a/Output/a5.xlsx
+++ b/Output/a5.xlsx
@@ -445,12 +445,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10:49:36</t>
+          <t>10:18:54</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:49:38</t>
+          <t>10:18:56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Output/a5.xlsx
+++ b/Output/a5.xlsx
@@ -445,17 +445,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10:18:54</t>
+          <t>10:26:23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:18:56</t>
+          <t>10:26:25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
@@ -490,16 +490,8 @@
           <t>Velocity (um/s)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Start Coordinates</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>End Coordinates</t>
-        </is>
-      </c>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
